--- a/results/2020_7_13_epoch50/cal.xlsx
+++ b/results/2020_7_13_epoch50/cal.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A984AAD9-0D05-4F52-8DE0-B1BA9941AA74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7F5D4B-E99D-4665-A7C2-B53CC61F01C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5865" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5865" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,11 @@
     <sheet name="bert_fixed" sheetId="2" r:id="rId3"/>
     <sheet name="bert_fine_tuning" sheetId="4" r:id="rId4"/>
     <sheet name="multi fine tuning" sheetId="5" r:id="rId5"/>
+    <sheet name="multi fixed" sheetId="6" r:id="rId6"/>
+    <sheet name="seq2" sheetId="7" r:id="rId7"/>
+    <sheet name="seq3" sheetId="8" r:id="rId8"/>
+    <sheet name="seq4" sheetId="9" r:id="rId9"/>
+    <sheet name="seq5" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="23">
   <si>
     <t>総合</t>
     <rPh sb="0" eb="2">
@@ -124,6 +129,14 @@
     <t>1in1out</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>multi fixed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -148,12 +161,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -265,24 +284,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,12 +310,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -326,6 +330,30 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,7 +638,7 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M3"/>
+      <selection activeCell="L2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -621,85 +649,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="19" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7">
         <f>B2+D2+F2+H2+J2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="8">
         <f>C2+E2+G2+I2+K2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="14">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="12">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="9">
         <f>B3+D3+F3+H3+J3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="12">
         <f>C3+E3+G3+I3+K3</f>
         <v>0</v>
       </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="20">
+      <c r="O3" s="15">
         <v>230</v>
       </c>
       <c r="P3" s="1"/>
@@ -713,36 +741,36 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="e">
+      <c r="B4" s="20" t="e">
         <f>(B2+C3)/(B2+C2+B3+C3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="e">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="e">
         <f t="shared" ref="D4" si="0">(D2+E3)/(D2+E2+D3+E3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="e">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="e">
         <f t="shared" ref="F4" si="1">(F2+G3)/(F2+G2+F3+G3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="e">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="e">
         <f t="shared" ref="H4" si="2">(H2+I3)/(H2+I2+H3+I3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="e">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20" t="e">
         <f t="shared" ref="J4" si="3">(J2+K3)/(J2+K2+J3+K3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15" t="e">
+      <c r="K4" s="20"/>
+      <c r="L4" s="18" t="e">
         <f>(L2+M3)/(L2+M2+L3+M3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -756,36 +784,36 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="e">
+      <c r="B5" s="18" t="e">
         <f>B2/(C2+B2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="e">
-        <f t="shared" ref="D5:M5" si="4">D2/(E2+D2)</f>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="e">
+        <f t="shared" ref="D5" si="4">D2/(E2+D2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="e">
-        <f t="shared" ref="F5:M5" si="5">F2/(G2+F2)</f>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="e">
+        <f t="shared" ref="F5" si="5">F2/(G2+F2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="e">
-        <f t="shared" ref="H5:M5" si="6">H2/(I2+H2)</f>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="e">
+        <f t="shared" ref="H5" si="6">H2/(I2+H2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="e">
-        <f t="shared" ref="J5:M5" si="7">J2/(K2+J2)</f>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="e">
+        <f t="shared" ref="J5" si="7">J2/(K2+J2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15" t="e">
-        <f t="shared" ref="L5:M5" si="8">L2/(M2+L2)</f>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18" t="e">
+        <f t="shared" ref="L5" si="8">L2/(M2+L2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -799,36 +827,36 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="e">
+      <c r="B6" s="18" t="e">
         <f>B2/(B2+B3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="e">
-        <f t="shared" ref="D6:M6" si="9">D2/(D2+D3)</f>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="e">
+        <f t="shared" ref="D6" si="9">D2/(D2+D3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="e">
-        <f t="shared" ref="F6:M6" si="10">F2/(F2+F3)</f>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="e">
+        <f t="shared" ref="F6" si="10">F2/(F2+F3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="e">
-        <f t="shared" ref="H6:M6" si="11">H2/(H2+H3)</f>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="e">
+        <f t="shared" ref="H6" si="11">H2/(H2+H3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="e">
-        <f t="shared" ref="J6:M6" si="12">J2/(J2+J3)</f>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18" t="e">
+        <f t="shared" ref="J6" si="12">J2/(J2+J3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="e">
-        <f t="shared" ref="L6:M6" si="13">L2/(L2+L3)</f>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18" t="e">
+        <f t="shared" ref="L6" si="13">L2/(L2+L3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="18"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -842,36 +870,36 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="e">
+      <c r="B7" s="19" t="e">
         <f xml:space="preserve"> (2*B5*B6)/(B5+B6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="e">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="e">
         <f t="shared" ref="D7" si="14" xml:space="preserve"> (2*D5*D6)/(D5+D6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="e">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="e">
         <f t="shared" ref="F7" si="15" xml:space="preserve"> (2*F5*F6)/(F5+F6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="e">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="e">
         <f t="shared" ref="H7" si="16" xml:space="preserve"> (2*H5*H6)/(H5+H6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="e">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="e">
         <f t="shared" ref="J7" si="17" xml:space="preserve"> (2*J5*J6)/(J5+J6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="e">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19" t="e">
         <f t="shared" ref="L7" si="18" xml:space="preserve"> (2*L5*L6)/(L5+L6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -905,7 +933,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -964,58 +992,58 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="R12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="T12" s="1"/>
@@ -1025,75 +1053,75 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="22" t="e">
+      <c r="B13" s="17" t="e">
         <f>B4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C13" s="22" t="e">
+      <c r="C13" s="17" t="e">
         <f>B5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D13" s="5" t="e">
+      <c r="D13" s="4" t="e">
         <f>B7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="22" t="e">
+      <c r="E13" s="17" t="e">
         <f>D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="22" t="e">
+      <c r="F13" s="17" t="e">
         <f>D5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="5" t="e">
+      <c r="G13" s="4" t="e">
         <f>D7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="22" t="e">
+      <c r="H13" s="17" t="e">
         <f>F4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="22" t="e">
+      <c r="I13" s="17" t="e">
         <f>F5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="5" t="e">
+      <c r="J13" s="4" t="e">
         <f>F7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="22" t="e">
+      <c r="K13" s="17" t="e">
         <f>H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="22" t="e">
+      <c r="L13" s="17" t="e">
         <f>H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="5" t="e">
+      <c r="M13" s="4" t="e">
         <f>H7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="22" t="e">
+      <c r="N13" s="17" t="e">
         <f>J4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O13" s="22" t="e">
+      <c r="O13" s="17" t="e">
         <f>J5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="5" t="e">
+      <c r="P13" s="4" t="e">
         <f>J7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="5" t="e">
+      <c r="Q13" s="4" t="e">
         <f>L4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R13" s="5" t="e">
+      <c r="R13" s="4" t="e">
         <f>L5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S13" s="5" t="e">
+      <c r="S13" s="4" t="e">
         <f>L7</f>
         <v>#DIV/0!</v>
       </c>
@@ -1222,6 +1250,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
@@ -1232,20 +1280,696 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3418E66-0587-447B-BBA1-BB17CDB2D1F3}">
+  <dimension ref="A1:U20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="22" max="22" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6">
+        <v>9</v>
+      </c>
+      <c r="L2" s="7">
+        <f>B2+D2+F2+H2+J2</f>
+        <v>63</v>
+      </c>
+      <c r="M2" s="8">
+        <f>C2+E2+G2+I2+K2</f>
+        <v>33</v>
+      </c>
+      <c r="O2" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="9">
+        <v>18</v>
+      </c>
+      <c r="C3" s="10">
+        <v>38</v>
+      </c>
+      <c r="D3" s="13">
+        <v>29</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>6</v>
+      </c>
+      <c r="G3" s="12">
+        <v>46</v>
+      </c>
+      <c r="H3" s="13">
+        <v>9</v>
+      </c>
+      <c r="I3" s="12">
+        <v>42</v>
+      </c>
+      <c r="J3" s="13">
+        <v>17</v>
+      </c>
+      <c r="K3" s="12">
+        <v>25</v>
+      </c>
+      <c r="L3" s="9">
+        <f>B3+D3+F3+H3+J3</f>
+        <v>79</v>
+      </c>
+      <c r="M3" s="12">
+        <f>C3+E3+G3+I3+K3</f>
+        <v>151</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="15">
+        <v>230</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20">
+        <f>(B2+C3)/(B2+C2+B3+C3)</f>
+        <v>0.65151515151515149</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4" si="0">(D2+E3)/(D2+E2+D3+E3)</f>
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
+        <f t="shared" ref="F4" si="1">(F2+G3)/(F2+G2+F3+G3)</f>
+        <v>0.78125</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4" si="2">(H2+I3)/(H2+I2+H3+I3)</f>
+        <v>0.75384615384615383</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
+        <f t="shared" ref="J4" si="3">(J2+K3)/(J2+K2+J3+K3)</f>
+        <v>0.59375</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="18">
+        <f>(L2+M3)/(L2+M2+L3+M3)</f>
+        <v>0.65644171779141103</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="18">
+        <f>B2/(C2+B2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5" si="4">D2/(E2+D2)</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
+        <f t="shared" ref="F5" si="5">F2/(G2+F2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5" si="6">H2/(I2+H2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5" si="7">J2/(K2+J2)</f>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18">
+        <f>L2/(M2+L2)</f>
+        <v>0.65625</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="18">
+        <f>B2/(B2+B3)</f>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6" si="8">D2/(D2+D3)</f>
+        <v>0.53968253968253965</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6" si="9">F2/(F2+F3)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6" si="10">H2/(H2+H3)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6" si="11">J2/(J2+J3)</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18">
+        <f>L2/(L2+L3)</f>
+        <v>0.44366197183098594</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19">
+        <f xml:space="preserve"> (2*B5*B6)/(B5+B6)</f>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
+        <f t="shared" ref="D7" si="12" xml:space="preserve"> (2*D5*D6)/(D5+D6)</f>
+        <v>0.6732673267326732</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
+        <f t="shared" ref="F7" si="13" xml:space="preserve"> (2*F5*F6)/(F5+F6)</f>
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
+        <f t="shared" ref="H7" si="14" xml:space="preserve"> (2*H5*H6)/(H5+H6)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19">
+        <f t="shared" ref="J7" si="15" xml:space="preserve"> (2*J5*J6)/(J5+J6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
+        <f xml:space="preserve"> (2*L5*L6)/(L5+L6)</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A13" s="25">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17">
+        <f>B4</f>
+        <v>0.65151515151515149</v>
+      </c>
+      <c r="C13" s="17">
+        <f>B5</f>
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="4">
+        <f>B7</f>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="E13" s="17">
+        <f>D4</f>
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="F13" s="17">
+        <f>D5</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="G13" s="4">
+        <f>D7</f>
+        <v>0.6732673267326732</v>
+      </c>
+      <c r="H13" s="17">
+        <f>F4</f>
+        <v>0.78125</v>
+      </c>
+      <c r="I13" s="17">
+        <f>F5</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J13" s="4">
+        <f>F7</f>
+        <v>0.36363636363636359</v>
+      </c>
+      <c r="K13" s="17">
+        <f>H4</f>
+        <v>0.75384615384615383</v>
+      </c>
+      <c r="L13" s="17">
+        <f>H5</f>
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="4">
+        <f>H7</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="N13" s="17">
+        <f>J4</f>
+        <v>0.59375</v>
+      </c>
+      <c r="O13" s="17">
+        <f>J5</f>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="P13" s="4">
+        <f>J7</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>L4</f>
+        <v>0.65644171779141103</v>
+      </c>
+      <c r="R13" s="4">
+        <f>L5</f>
+        <v>0.65625</v>
+      </c>
+      <c r="S13" s="4">
+        <f>L7</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C18" s="2"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -1255,7 +1979,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1280,125 +2003,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="19" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>9</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <v>20</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>18</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="5">
         <v>9</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <v>3</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="5">
         <v>8</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>6</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="5">
         <v>8</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="6">
         <v>14</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="7">
         <f>B2+D2+F2+H2+J2</f>
         <v>46</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="8">
         <f>C2+E2+G2+I2+K2</f>
         <v>50</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="14">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>11</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>45</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="13">
         <v>8</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="12">
         <v>21</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="13">
         <v>33</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="12">
         <v>19</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="13">
         <v>28</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="12">
         <v>23</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="13">
         <v>12</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <v>30</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="9">
         <f>B3+D3+F3+H3+J3</f>
         <v>92</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="12">
         <f>C3+E3+G3+I3+K3</f>
         <v>138</v>
       </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="20">
+      <c r="O3" s="15">
         <v>230</v>
       </c>
       <c r="P3" s="1"/>
@@ -1412,36 +2135,36 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="20">
         <f>(B2+C3)/(B2+C2+B3+C3)</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
         <f t="shared" ref="D4" si="0">(D2+E3)/(D2+E2+D3+E3)</f>
         <v>0.61194029850746268</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
         <f t="shared" ref="F4" si="1">(F2+G3)/(F2+G2+F3+G3)</f>
         <v>0.4375</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20">
         <f t="shared" ref="H4" si="2">(H2+I3)/(H2+I2+H3+I3)</f>
         <v>0.47692307692307695</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
         <f t="shared" ref="J4" si="3">(J2+K3)/(J2+K2+J3+K3)</f>
         <v>0.59375</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15">
+      <c r="K4" s="20"/>
+      <c r="L4" s="18">
         <f>(L2+M3)/(L2+M2+L3+M3)</f>
         <v>0.56441717791411039</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1455,36 +2178,36 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="18">
         <f>B2/(C2+B2)</f>
         <v>0.1</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
-        <f t="shared" ref="D5:M5" si="4">D2/(E2+D2)</f>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5" si="4">D2/(E2+D2)</f>
         <v>0.52631578947368418</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
-        <f t="shared" ref="F5:M5" si="5">F2/(G2+F2)</f>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
+        <f t="shared" ref="F5" si="5">F2/(G2+F2)</f>
         <v>0.75</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15">
-        <f t="shared" ref="H5:M5" si="6">H2/(I2+H2)</f>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5" si="6">H2/(I2+H2)</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15">
-        <f t="shared" ref="J5:M5" si="7">J2/(K2+J2)</f>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5" si="7">J2/(K2+J2)</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15">
-        <f t="shared" ref="L5:M5" si="8">L2/(M2+L2)</f>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18">
+        <f t="shared" ref="L5" si="8">L2/(M2+L2)</f>
         <v>0.47916666666666669</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1498,36 +2221,36 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="18">
         <f>B2/(B2+B3)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
-        <f t="shared" ref="D6:M6" si="9">D2/(D2+D3)</f>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6" si="9">D2/(D2+D3)</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15">
-        <f t="shared" ref="F6:M6" si="10">F2/(F2+F3)</f>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6" si="10">F2/(F2+F3)</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15">
-        <f t="shared" ref="H6:M6" si="11">H2/(H2+H3)</f>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6" si="11">H2/(H2+H3)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15">
-        <f t="shared" ref="J6:M6" si="12">J2/(J2+J3)</f>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6" si="12">J2/(J2+J3)</f>
         <v>0.4</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15">
-        <f t="shared" ref="L6:M6" si="13">L2/(L2+L3)</f>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18">
+        <f t="shared" ref="L6" si="13">L2/(L2+L3)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="18"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1541,36 +2264,36 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="19">
         <f xml:space="preserve"> (2*B5*B6)/(B5+B6)</f>
         <v>9.0909090909090898E-2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
         <f t="shared" ref="D7" si="14" xml:space="preserve"> (2*D5*D6)/(D5+D6)</f>
         <v>0.60606060606060608</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
         <f t="shared" ref="F7" si="15" xml:space="preserve"> (2*F5*F6)/(F5+F6)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
         <f t="shared" ref="H7" si="16" xml:space="preserve"> (2*H5*H6)/(H5+H6)</f>
         <v>0.32</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19">
         <f t="shared" ref="J7" si="17" xml:space="preserve"> (2*J5*J6)/(J5+J6)</f>
         <v>0.38095238095238099</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
         <f t="shared" ref="L7" si="18" xml:space="preserve"> (2*L5*L6)/(L5+L6)</f>
         <v>0.39316239316239315</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1604,7 +2327,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1663,58 +2386,58 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="R12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="T12" s="1"/>
@@ -1724,75 +2447,75 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="17">
         <f>B4</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="17">
         <f>B5</f>
         <v>0.1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f>B7</f>
         <v>9.0909090909090898E-2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="17">
         <f>D4</f>
         <v>0.61194029850746268</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="17">
         <f>D5</f>
         <v>0.52631578947368418</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f>D7</f>
         <v>0.60606060606060608</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="17">
         <f>F4</f>
         <v>0.4375</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="17">
         <f>F5</f>
         <v>0.75</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f>F7</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="17">
         <f>H4</f>
         <v>0.47692307692307695</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="17">
         <f>H5</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <f>H7</f>
         <v>0.32</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="17">
         <f>J4</f>
         <v>0.59375</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="17">
         <f>J5</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <f>J7</f>
         <v>0.38095238095238099</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="4">
         <f>L4</f>
         <v>0.56441717791411039</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="4">
         <f>L5</f>
         <v>0.47916666666666669</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="4">
         <f>L7</f>
         <v>0.39316239316239315</v>
       </c>
@@ -1918,6 +2641,2241 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF54AD4-A38A-4953-9669-EB2CA5D6F2DF}">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>24</v>
+      </c>
+      <c r="E2" s="8">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6">
+        <v>9</v>
+      </c>
+      <c r="L2" s="7">
+        <f>B2+D2+F2+H2+J2</f>
+        <v>49</v>
+      </c>
+      <c r="M2" s="8">
+        <f>C2+E2+G2+I2+K2</f>
+        <v>47</v>
+      </c>
+      <c r="N2" s="14">
+        <f>L2+M2</f>
+        <v>96</v>
+      </c>
+      <c r="O2" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="9">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10">
+        <v>45</v>
+      </c>
+      <c r="D3" s="13">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12">
+        <v>14</v>
+      </c>
+      <c r="F3" s="13">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>48</v>
+      </c>
+      <c r="H3" s="13">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12">
+        <v>36</v>
+      </c>
+      <c r="J3" s="13">
+        <v>17</v>
+      </c>
+      <c r="K3" s="12">
+        <v>25</v>
+      </c>
+      <c r="L3" s="9">
+        <f>B3+D3+F3+H3+J3</f>
+        <v>62</v>
+      </c>
+      <c r="M3" s="12">
+        <f>C3+E3+G3+I3+K3</f>
+        <v>168</v>
+      </c>
+      <c r="N3" s="15">
+        <f>L3+M3</f>
+        <v>230</v>
+      </c>
+      <c r="O3" s="15">
+        <v>230</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20">
+        <f>(B2+C3)/(B2+C2+B3+C3)</f>
+        <v>0.71212121212121215</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4" si="0">(D2+E3)/(D2+E2+D3+E3)</f>
+        <v>0.56716417910447758</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
+        <f t="shared" ref="F4" si="1">(F2+G3)/(F2+G2+F3+G3)</f>
+        <v>0.765625</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4" si="2">(H2+I3)/(H2+I2+H3+I3)</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
+        <f t="shared" ref="J4" si="3">(J2+K3)/(J2+K2+J3+K3)</f>
+        <v>0.59375</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="18">
+        <f>(L2+M3)/(L2+M2+L3+M3)</f>
+        <v>0.66564417177914115</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="18">
+        <f>B2/(C2+B2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5" si="4">D2/(E2+D2)</f>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
+        <f t="shared" ref="F5" si="5">F2/(G2+F2)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5" si="6">H2/(I2+H2)</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5" si="7">J2/(K2+J2)</f>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18">
+        <f t="shared" ref="L5" si="8">L2/(M2+L2)</f>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="18">
+        <f>B2/(B2+B3)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6" si="9">D2/(D2+D3)</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6" si="10">F2/(F2+F3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6" si="11">H2/(H2+H3)</f>
+        <v>0.375</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6" si="12">J2/(J2+J3)</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18">
+        <f t="shared" ref="L6" si="13">L2/(L2+L3)</f>
+        <v>0.44144144144144143</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19">
+        <f xml:space="preserve"> (2*B5*B6)/(B5+B6)</f>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
+        <f t="shared" ref="D7" si="14" xml:space="preserve"> (2*D5*D6)/(D5+D6)</f>
+        <v>0.62337662337662336</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
+        <f t="shared" ref="F7" si="15" xml:space="preserve"> (2*F5*F6)/(F5+F6)</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
+        <f t="shared" ref="H7" si="16" xml:space="preserve"> (2*H5*H6)/(H5+H6)</f>
+        <v>0.47368421052631587</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19">
+        <f t="shared" ref="J7" si="17" xml:space="preserve"> (2*J5*J6)/(J5+J6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
+        <f t="shared" ref="L7" si="18" xml:space="preserve"> (2*L5*L6)/(L5+L6)</f>
+        <v>0.47342995169082119</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="17">
+        <f>B4</f>
+        <v>0.71212121212121215</v>
+      </c>
+      <c r="C13" s="17">
+        <f>B5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="4">
+        <f>B7</f>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="E13" s="17">
+        <f>D4</f>
+        <v>0.56716417910447758</v>
+      </c>
+      <c r="F13" s="17">
+        <f>D5</f>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="G13" s="4">
+        <f>D7</f>
+        <v>0.62337662337662336</v>
+      </c>
+      <c r="H13" s="17">
+        <f>F4</f>
+        <v>0.765625</v>
+      </c>
+      <c r="I13" s="17">
+        <f>F5</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <f>F7</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="K13" s="17">
+        <f>H4</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="L13" s="17">
+        <f>H5</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M13" s="4">
+        <f>H7</f>
+        <v>0.47368421052631587</v>
+      </c>
+      <c r="N13" s="17">
+        <f>J4</f>
+        <v>0.59375</v>
+      </c>
+      <c r="O13" s="17">
+        <f>J5</f>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="P13" s="4">
+        <f>J7</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>L4</f>
+        <v>0.66564417177914115</v>
+      </c>
+      <c r="R13" s="4">
+        <f>L5</f>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="S13" s="4">
+        <f>L7</f>
+        <v>0.47342995169082119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B111EB8-ABF0-42C2-965C-DE79DCCAC847}">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>27</v>
+      </c>
+      <c r="E2" s="8">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6">
+        <v>9</v>
+      </c>
+      <c r="L2" s="7">
+        <f>B2+D2+F2+H2+J2</f>
+        <v>50</v>
+      </c>
+      <c r="M2" s="8">
+        <f>C2+E2+G2+I2+K2</f>
+        <v>46</v>
+      </c>
+      <c r="N2" s="14">
+        <f>L2+M2</f>
+        <v>96</v>
+      </c>
+      <c r="O2" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="9">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10">
+        <v>52</v>
+      </c>
+      <c r="D3" s="13">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12">
+        <v>14</v>
+      </c>
+      <c r="F3" s="13">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>48</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12">
+        <v>49</v>
+      </c>
+      <c r="J3" s="13">
+        <v>16</v>
+      </c>
+      <c r="K3" s="12">
+        <v>26</v>
+      </c>
+      <c r="L3" s="9">
+        <f>B3+D3+F3+H3+J3</f>
+        <v>41</v>
+      </c>
+      <c r="M3" s="12">
+        <f>C3+E3+G3+I3+K3</f>
+        <v>189</v>
+      </c>
+      <c r="N3" s="15">
+        <f>L3+M3</f>
+        <v>230</v>
+      </c>
+      <c r="O3" s="15">
+        <v>230</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20">
+        <f>(B2+C3)/(B2+C2+B3+C3)</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4" si="0">(D2+E3)/(D2+E2+D3+E3)</f>
+        <v>0.61194029850746268</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
+        <f t="shared" ref="F4" si="1">(F2+G3)/(F2+G2+F3+G3)</f>
+        <v>0.765625</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4" si="2">(H2+I3)/(H2+I2+H3+I3)</f>
+        <v>0.86153846153846159</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
+        <f t="shared" ref="J4" si="3">(J2+K3)/(J2+K2+J3+K3)</f>
+        <v>0.609375</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="18">
+        <f>(L2+M3)/(L2+M2+L3+M3)</f>
+        <v>0.73312883435582821</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="18">
+        <f>B2/(C2+B2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5" si="4">D2/(E2+D2)</f>
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
+        <f t="shared" ref="F5" si="5">F2/(G2+F2)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5" si="6">H2/(I2+H2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5" si="7">J2/(K2+J2)</f>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18">
+        <f t="shared" ref="L5" si="8">L2/(M2+L2)</f>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="18">
+        <f>B2/(B2+B3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6" si="9">D2/(D2+D3)</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6" si="10">F2/(F2+F3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6" si="11">H2/(H2+H3)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6" si="12">J2/(J2+J3)</f>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18">
+        <f t="shared" ref="L6" si="13">L2/(L2+L3)</f>
+        <v>0.5494505494505495</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19">
+        <f xml:space="preserve"> (2*B5*B6)/(B5+B6)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
+        <f t="shared" ref="D7" si="14" xml:space="preserve"> (2*D5*D6)/(D5+D6)</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
+        <f t="shared" ref="F7" si="15" xml:space="preserve"> (2*F5*F6)/(F5+F6)</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
+        <f t="shared" ref="H7" si="16" xml:space="preserve"> (2*H5*H6)/(H5+H6)</f>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19">
+        <f t="shared" ref="J7" si="17" xml:space="preserve"> (2*J5*J6)/(J5+J6)</f>
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
+        <f t="shared" ref="L7" si="18" xml:space="preserve"> (2*L5*L6)/(L5+L6)</f>
+        <v>0.53475935828877019</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="17">
+        <f>B4</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="C13" s="17">
+        <f>B5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="4">
+        <f>B7</f>
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="17">
+        <f>D4</f>
+        <v>0.61194029850746268</v>
+      </c>
+      <c r="F13" s="17">
+        <f>D5</f>
+        <v>0.71052631578947367</v>
+      </c>
+      <c r="G13" s="4">
+        <f>D7</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="H13" s="17">
+        <f>F4</f>
+        <v>0.765625</v>
+      </c>
+      <c r="I13" s="17">
+        <f>F5</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <f>F7</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="K13" s="17">
+        <f>H4</f>
+        <v>0.86153846153846159</v>
+      </c>
+      <c r="L13" s="17">
+        <f>H5</f>
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="4">
+        <f>H7</f>
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="N13" s="17">
+        <f>J4</f>
+        <v>0.609375</v>
+      </c>
+      <c r="O13" s="17">
+        <f>J5</f>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="P13" s="4">
+        <f>J7</f>
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>L4</f>
+        <v>0.73312883435582821</v>
+      </c>
+      <c r="R13" s="4">
+        <f>L5</f>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="S13" s="4">
+        <f>L7</f>
+        <v>0.53475935828877019</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C0090A-78A8-4725-BBD4-21DD3C794553}">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>29</v>
+      </c>
+      <c r="E2" s="8">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5">
+        <v>11</v>
+      </c>
+      <c r="K2" s="6">
+        <v>11</v>
+      </c>
+      <c r="L2" s="7">
+        <f>B2+D2+F2+H2+J2</f>
+        <v>56</v>
+      </c>
+      <c r="M2" s="8">
+        <f>C2+E2+G2+I2+K2</f>
+        <v>40</v>
+      </c>
+      <c r="N2" s="14">
+        <f>L2+M2</f>
+        <v>96</v>
+      </c>
+      <c r="O2" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="9">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
+        <v>49</v>
+      </c>
+      <c r="D3" s="13">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12">
+        <v>17</v>
+      </c>
+      <c r="F3" s="13">
+        <v>12</v>
+      </c>
+      <c r="G3" s="12">
+        <v>40</v>
+      </c>
+      <c r="H3" s="13">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12">
+        <v>41</v>
+      </c>
+      <c r="J3" s="13">
+        <v>12</v>
+      </c>
+      <c r="K3" s="12">
+        <v>30</v>
+      </c>
+      <c r="L3" s="9">
+        <f>B3+D3+F3+H3+J3</f>
+        <v>53</v>
+      </c>
+      <c r="M3" s="12">
+        <f>C3+E3+G3+I3+K3</f>
+        <v>177</v>
+      </c>
+      <c r="N3" s="15">
+        <f>L3+M3</f>
+        <v>230</v>
+      </c>
+      <c r="O3" s="15">
+        <v>230</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20">
+        <f>(B2+C3)/(B2+C2+B3+C3)</f>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4" si="0">(D2+E3)/(D2+E2+D3+E3)</f>
+        <v>0.68656716417910446</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
+        <f t="shared" ref="F4" si="1">(F2+G3)/(F2+G2+F3+G3)</f>
+        <v>0.703125</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4" si="2">(H2+I3)/(H2+I2+H3+I3)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
+        <f t="shared" ref="J4" si="3">(J2+K3)/(J2+K2+J3+K3)</f>
+        <v>0.640625</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="18">
+        <f>(L2+M3)/(L2+M2+L3+M3)</f>
+        <v>0.71472392638036808</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="18">
+        <f>B2/(C2+B2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5" si="4">D2/(E2+D2)</f>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
+        <f t="shared" ref="F5" si="5">F2/(G2+F2)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5" si="6">H2/(I2+H2)</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5" si="7">J2/(K2+J2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18">
+        <f t="shared" ref="L5" si="8">L2/(M2+L2)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="18">
+        <f>B2/(B2+B3)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6" si="9">D2/(D2+D3)</f>
+        <v>0.70731707317073167</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6" si="10">F2/(F2+F3)</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6" si="11">H2/(H2+H3)</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6" si="12">J2/(J2+J3)</f>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18">
+        <f t="shared" ref="L6" si="13">L2/(L2+L3)</f>
+        <v>0.51376146788990829</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19">
+        <f xml:space="preserve"> (2*B5*B6)/(B5+B6)</f>
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
+        <f t="shared" ref="D7" si="14" xml:space="preserve"> (2*D5*D6)/(D5+D6)</f>
+        <v>0.73417721518987333</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
+        <f t="shared" ref="F7" si="15" xml:space="preserve"> (2*F5*F6)/(F5+F6)</f>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
+        <f t="shared" ref="H7" si="16" xml:space="preserve"> (2*H5*H6)/(H5+H6)</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19">
+        <f t="shared" ref="J7" si="17" xml:space="preserve"> (2*J5*J6)/(J5+J6)</f>
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
+        <f t="shared" ref="L7" si="18" xml:space="preserve"> (2*L5*L6)/(L5+L6)</f>
+        <v>0.54634146341463419</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17">
+        <f>B4</f>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="C13" s="17">
+        <f>B5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="4">
+        <f>B7</f>
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="E13" s="17">
+        <f>D4</f>
+        <v>0.68656716417910446</v>
+      </c>
+      <c r="F13" s="17">
+        <f>D5</f>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="G13" s="4">
+        <f>D7</f>
+        <v>0.73417721518987333</v>
+      </c>
+      <c r="H13" s="17">
+        <f>F4</f>
+        <v>0.703125</v>
+      </c>
+      <c r="I13" s="17">
+        <f>F5</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J13" s="4">
+        <f>F7</f>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="K13" s="17">
+        <f>H4</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="L13" s="17">
+        <f>H5</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M13" s="4">
+        <f>H7</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="N13" s="17">
+        <f>J4</f>
+        <v>0.640625</v>
+      </c>
+      <c r="O13" s="17">
+        <f>J5</f>
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="4">
+        <f>J7</f>
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>L4</f>
+        <v>0.71472392638036808</v>
+      </c>
+      <c r="R13" s="4">
+        <f>L5</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S13" s="4">
+        <f>L7</f>
+        <v>0.54634146341463419</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F4728-9275-4534-A7D9-F9222E497179}">
+  <dimension ref="A1:S13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7">
+        <v>21</v>
+      </c>
+      <c r="E2" s="8">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6">
+        <v>16</v>
+      </c>
+      <c r="L2" s="7">
+        <f>B2+D2+F2+H2+J2</f>
+        <v>43</v>
+      </c>
+      <c r="M2" s="8">
+        <f>C2+E2+G2+I2+K2</f>
+        <v>53</v>
+      </c>
+      <c r="N2" s="14">
+        <f>L2+M2</f>
+        <v>96</v>
+      </c>
+      <c r="O2" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="9">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12">
+        <v>21</v>
+      </c>
+      <c r="F3" s="13">
+        <v>36</v>
+      </c>
+      <c r="G3" s="12">
+        <v>16</v>
+      </c>
+      <c r="H3" s="13">
+        <v>22</v>
+      </c>
+      <c r="I3" s="12">
+        <v>29</v>
+      </c>
+      <c r="J3" s="13">
+        <v>12</v>
+      </c>
+      <c r="K3" s="12">
+        <v>30</v>
+      </c>
+      <c r="L3" s="9">
+        <f>B3+D3+F3+H3+J3</f>
+        <v>84</v>
+      </c>
+      <c r="M3" s="12">
+        <f>C3+E3+G3+I3+K3</f>
+        <v>146</v>
+      </c>
+      <c r="N3" s="15">
+        <f>L3+M3</f>
+        <v>230</v>
+      </c>
+      <c r="O3" s="15">
+        <v>230</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20">
+        <f>(B2+C3)/(B2+C2+B3+C3)</f>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4" si="0">(D2+E3)/(D2+E2+D3+E3)</f>
+        <v>0.62686567164179108</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
+        <f t="shared" ref="F4" si="1">(F2+G3)/(F2+G2+F3+G3)</f>
+        <v>0.390625</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4" si="2">(H2+I3)/(H2+I2+H3+I3)</f>
+        <v>0.55384615384615388</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
+        <f t="shared" ref="J4" si="3">(J2+K3)/(J2+K2+J3+K3)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="18">
+        <f>(L2+M3)/(L2+M2+L3+M3)</f>
+        <v>0.57975460122699385</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="18">
+        <f>B2/(C2+B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5" si="4">D2/(E2+D2)</f>
+        <v>0.55263157894736847</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
+        <f t="shared" ref="F5" si="5">F2/(G2+F2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5" si="6">H2/(I2+H2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5" si="7">J2/(K2+J2)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18">
+        <f t="shared" ref="L5" si="8">L2/(M2+L2)</f>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="18">
+        <f>B2/(B2+B3)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6" si="9">D2/(D2+D3)</f>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6" si="10">F2/(F2+F3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6" si="11">H2/(H2+H3)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6" si="12">J2/(J2+J3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18">
+        <f t="shared" ref="L6" si="13">L2/(L2+L3)</f>
+        <v>0.33858267716535434</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19" t="e">
+        <f xml:space="preserve"> (2*B5*B6)/(B5+B6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
+        <f t="shared" ref="D7" si="14" xml:space="preserve"> (2*D5*D6)/(D5+D6)</f>
+        <v>0.62686567164179108</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
+        <f t="shared" ref="F7" si="15" xml:space="preserve"> (2*F5*F6)/(F5+F6)</f>
+        <v>0.31578947368421056</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
+        <f t="shared" ref="H7" si="16" xml:space="preserve"> (2*H5*H6)/(H5+H6)</f>
+        <v>0.32558139534883723</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19">
+        <f t="shared" ref="J7" si="17" xml:space="preserve"> (2*J5*J6)/(J5+J6)</f>
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
+        <f t="shared" ref="L7" si="18" xml:space="preserve"> (2*L5*L6)/(L5+L6)</f>
+        <v>0.38565022421524664</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="17">
+        <f>B4</f>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="C13" s="17">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <f>D4</f>
+        <v>0.62686567164179108</v>
+      </c>
+      <c r="F13" s="17">
+        <f>D5</f>
+        <v>0.55263157894736847</v>
+      </c>
+      <c r="G13" s="4">
+        <f>D7</f>
+        <v>0.62686567164179108</v>
+      </c>
+      <c r="H13" s="17">
+        <f>F4</f>
+        <v>0.390625</v>
+      </c>
+      <c r="I13" s="17">
+        <f>F5</f>
+        <v>0.75</v>
+      </c>
+      <c r="J13" s="4">
+        <f>F7</f>
+        <v>0.31578947368421056</v>
+      </c>
+      <c r="K13" s="17">
+        <f>H4</f>
+        <v>0.55384615384615388</v>
+      </c>
+      <c r="L13" s="17">
+        <f>H5</f>
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="4">
+        <f>H7</f>
+        <v>0.32558139534883723</v>
+      </c>
+      <c r="N13" s="17">
+        <f>J4</f>
+        <v>0.5625</v>
+      </c>
+      <c r="O13" s="17">
+        <f>J5</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="P13" s="4">
+        <f>J7</f>
+        <v>0.3</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>L4</f>
+        <v>0.57975460122699385</v>
+      </c>
+      <c r="R13" s="4">
+        <f>L5</f>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="S13" s="4">
+        <f>L7</f>
+        <v>0.38565022421524664</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -1958,316 +4916,323 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF54AD4-A38A-4953-9669-EB2CA5D6F2DF}">
-  <dimension ref="A1:S13"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB19C696-10C4-4596-BC13-CC5F6BB90760}">
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="22" max="22" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:21" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="19" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B2" s="8">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>8</v>
       </c>
-      <c r="D2" s="10">
-        <v>24</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="D2" s="7">
+        <v>26</v>
+      </c>
+      <c r="E2" s="8">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6">
         <v>14</v>
       </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="L2" s="7">
+        <f>B2+D2+F2+H2+J2</f>
+        <v>41</v>
+      </c>
+      <c r="M2" s="8">
+        <f>C2+E2+G2+I2+K2</f>
+        <v>55</v>
+      </c>
+      <c r="O2" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="9">
         <v>11</v>
       </c>
-      <c r="H2" s="8">
-        <v>9</v>
-      </c>
-      <c r="I2" s="9">
-        <v>5</v>
-      </c>
-      <c r="J2" s="8">
-        <v>13</v>
-      </c>
-      <c r="K2" s="9">
-        <v>9</v>
-      </c>
-      <c r="L2" s="10">
-        <f>B2+D2+F2+H2+J2</f>
+      <c r="C3" s="10">
+        <v>45</v>
+      </c>
+      <c r="D3" s="13">
+        <v>22</v>
+      </c>
+      <c r="E3" s="12">
+        <v>7</v>
+      </c>
+      <c r="F3" s="13">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12">
         <v>49</v>
       </c>
-      <c r="M2" s="11">
-        <f>C2+E2+G2+I2+K2</f>
-        <v>47</v>
-      </c>
-      <c r="N2" s="19">
-        <f>L2+M2</f>
-        <v>96</v>
-      </c>
-      <c r="O2" s="19">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="12">
-        <v>11</v>
-      </c>
-      <c r="C3" s="13">
-        <v>45</v>
-      </c>
-      <c r="D3" s="18">
-        <v>15</v>
-      </c>
-      <c r="E3" s="17">
-        <v>14</v>
-      </c>
-      <c r="F3" s="18">
-        <v>4</v>
-      </c>
-      <c r="G3" s="17">
-        <v>48</v>
-      </c>
-      <c r="H3" s="18">
-        <v>15</v>
-      </c>
-      <c r="I3" s="17">
-        <v>36</v>
-      </c>
-      <c r="J3" s="18">
-        <v>17</v>
-      </c>
-      <c r="K3" s="17">
-        <v>25</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="H3" s="13">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12">
+        <v>49</v>
+      </c>
+      <c r="J3" s="13">
+        <v>16</v>
+      </c>
+      <c r="K3" s="12">
+        <v>26</v>
+      </c>
+      <c r="L3" s="9">
         <f>B3+D3+F3+H3+J3</f>
-        <v>62</v>
-      </c>
-      <c r="M3" s="17">
+        <v>54</v>
+      </c>
+      <c r="M3" s="12">
         <f>C3+E3+G3+I3+K3</f>
-        <v>168</v>
-      </c>
-      <c r="N3" s="20">
-        <f>L3+M3</f>
-        <v>230</v>
-      </c>
-      <c r="O3" s="20">
+        <v>176</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="15">
         <v>230</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="20">
         <f>(B2+C3)/(B2+C2+B3+C3)</f>
         <v>0.71212121212121215</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
         <f t="shared" ref="D4" si="0">(D2+E3)/(D2+E2+D3+E3)</f>
-        <v>0.56716417910447758</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14">
+        <v>0.4925373134328358</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
         <f t="shared" ref="F4" si="1">(F2+G3)/(F2+G2+F3+G3)</f>
-        <v>0.765625</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14">
+        <v>0.78125</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20">
         <f t="shared" ref="H4" si="2">(H2+I3)/(H2+I2+H3+I3)</f>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14">
+        <v>0.81538461538461537</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
         <f t="shared" ref="J4" si="3">(J2+K3)/(J2+K2+J3+K3)</f>
-        <v>0.59375</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15">
+        <v>0.53125</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="18">
         <f>(L2+M3)/(L2+M2+L3+M3)</f>
         <v>0.66564417177914115</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="18">
         <f>B2/(C2+B2)</f>
         <v>0.2</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
-        <f t="shared" ref="D5:M5" si="4">D2/(E2+D2)</f>
-        <v>0.63157894736842102</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
-        <f t="shared" ref="F5:M5" si="5">F2/(G2+F2)</f>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5" si="4">D2/(E2+D2)</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
+        <f t="shared" ref="F5" si="5">F2/(G2+F2)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15">
-        <f t="shared" ref="H5:M5" si="6">H2/(I2+H2)</f>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15">
-        <f t="shared" ref="J5:M5" si="7">J2/(K2+J2)</f>
-        <v>0.59090909090909094</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15">
-        <f t="shared" ref="L5:M5" si="8">L2/(M2+L2)</f>
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="M5" s="15"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5" si="6">H2/(I2+H2)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5" si="7">J2/(K2+J2)</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18">
+        <f t="shared" ref="L5" si="8">L2/(M2+L2)</f>
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="M5" s="18"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="18">
         <f>B2/(B2+B3)</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
-        <f t="shared" ref="D6:M6" si="9">D2/(D2+D3)</f>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15">
-        <f t="shared" ref="F6:M6" si="10">F2/(F2+F3)</f>
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15">
-        <f t="shared" ref="H6:M6" si="11">H2/(H2+H3)</f>
-        <v>0.375</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15">
-        <f t="shared" ref="J6:M6" si="12">J2/(J2+J3)</f>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15">
-        <f t="shared" ref="L6:M6" si="13">L2/(L2+L3)</f>
-        <v>0.44144144144144143</v>
-      </c>
-      <c r="M6" s="15"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6" si="9">D2/(D2+D3)</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6" si="10">F2/(F2+F3)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6" si="11">H2/(H2+H3)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6" si="12">J2/(J2+J3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18">
+        <f t="shared" ref="L6" si="13">L2/(L2+L3)</f>
+        <v>0.43157894736842106</v>
+      </c>
+      <c r="M6" s="18"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="19">
         <f xml:space="preserve"> (2*B5*B6)/(B5+B6)</f>
         <v>0.17391304347826086</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
         <f t="shared" ref="D7" si="14" xml:space="preserve"> (2*D5*D6)/(D5+D6)</f>
-        <v>0.62337662337662336</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+        <v>0.60465116279069764</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
         <f t="shared" ref="F7" si="15" xml:space="preserve"> (2*F5*F6)/(F5+F6)</f>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
         <f t="shared" ref="H7" si="16" xml:space="preserve"> (2*H5*H6)/(H5+H6)</f>
-        <v>0.47368421052631587</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19">
         <f t="shared" ref="J7" si="17" xml:space="preserve"> (2*J5*J6)/(J5+J6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
         <f t="shared" ref="L7" si="18" xml:space="preserve"> (2*L5*L6)/(L5+L6)</f>
-        <v>0.47342995169082119</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>0.42931937172774876</v>
+      </c>
+      <c r="M7" s="19"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2284,12 +5249,14 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2302,8 +5269,10 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2320,11 +5289,10 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
@@ -2343,139 +5311,265 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="22">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17">
         <f>B4</f>
         <v>0.71212121212121215</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="17">
         <f>B5</f>
         <v>0.2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f>B7</f>
         <v>0.17391304347826086</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="17">
         <f>D4</f>
-        <v>0.56716417910447758</v>
-      </c>
-      <c r="F13" s="22">
+        <v>0.4925373134328358</v>
+      </c>
+      <c r="F13" s="17">
         <f>D5</f>
-        <v>0.63157894736842102</v>
-      </c>
-      <c r="G13" s="5">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G13" s="4">
         <f>D7</f>
-        <v>0.62337662337662336</v>
-      </c>
-      <c r="H13" s="22">
+        <v>0.60465116279069764</v>
+      </c>
+      <c r="H13" s="17">
         <f>F4</f>
-        <v>0.765625</v>
-      </c>
-      <c r="I13" s="22">
+        <v>0.78125</v>
+      </c>
+      <c r="I13" s="17">
         <f>F5</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f>F7</f>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="K13" s="22">
+        <v>0.125</v>
+      </c>
+      <c r="K13" s="17">
         <f>H4</f>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="L13" s="22">
+        <v>0.81538461538461537</v>
+      </c>
+      <c r="L13" s="17">
         <f>H5</f>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="M13" s="5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="M13" s="4">
         <f>H7</f>
-        <v>0.47368421052631587</v>
-      </c>
-      <c r="N13" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="N13" s="17">
         <f>J4</f>
-        <v>0.59375</v>
-      </c>
-      <c r="O13" s="22">
+        <v>0.53125</v>
+      </c>
+      <c r="O13" s="17">
         <f>J5</f>
-        <v>0.59090909090909094</v>
-      </c>
-      <c r="P13" s="5">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="P13" s="4">
         <f>J7</f>
-        <v>0.5</v>
-      </c>
-      <c r="Q13" s="5">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="Q13" s="4">
         <f>L4</f>
         <v>0.66564417177914115</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="4">
         <f>L5</f>
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="S13" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="S13" s="4">
         <f>L7</f>
-        <v>0.47342995169082119</v>
-      </c>
+        <v>0.42931937172774876</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C18" s="2"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -2515,316 +5609,323 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B111EB8-ABF0-42C2-965C-DE79DCCAC847}">
-  <dimension ref="A1:S13"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9439A462-9A80-4689-817F-616FCF3DFDCC}">
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="S13" sqref="B13:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="22" max="22" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:21" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="19" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B2" s="8">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7">
+        <v>29</v>
+      </c>
+      <c r="E2" s="8">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10">
-        <v>27</v>
-      </c>
-      <c r="E2" s="11">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9">
-        <v>11</v>
-      </c>
-      <c r="H2" s="8">
-        <v>7</v>
-      </c>
-      <c r="I2" s="9">
-        <v>7</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="G2" s="6">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5">
         <v>13</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="6">
         <v>9</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="7">
         <f>B2+D2+F2+H2+J2</f>
-        <v>50</v>
-      </c>
-      <c r="M2" s="11">
+        <v>53</v>
+      </c>
+      <c r="M2" s="8">
         <f>C2+E2+G2+I2+K2</f>
+        <v>43</v>
+      </c>
+      <c r="O2" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="9">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10">
+        <v>37</v>
+      </c>
+      <c r="D3" s="13">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13">
+        <v>6</v>
+      </c>
+      <c r="G3" s="12">
         <v>46</v>
       </c>
-      <c r="N2" s="19">
-        <f>L2+M2</f>
-        <v>96</v>
-      </c>
-      <c r="O2" s="19">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="12">
-        <v>4</v>
-      </c>
-      <c r="C3" s="13">
-        <v>52</v>
-      </c>
-      <c r="D3" s="18">
-        <v>15</v>
-      </c>
-      <c r="E3" s="17">
-        <v>14</v>
-      </c>
-      <c r="F3" s="18">
-        <v>4</v>
-      </c>
-      <c r="G3" s="17">
-        <v>48</v>
-      </c>
-      <c r="H3" s="18">
-        <v>2</v>
-      </c>
-      <c r="I3" s="17">
-        <v>49</v>
-      </c>
-      <c r="J3" s="18">
-        <v>16</v>
-      </c>
-      <c r="K3" s="17">
-        <v>26</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="H3" s="13">
+        <v>5</v>
+      </c>
+      <c r="I3" s="12">
+        <v>46</v>
+      </c>
+      <c r="J3" s="13">
+        <v>22</v>
+      </c>
+      <c r="K3" s="12">
+        <v>20</v>
+      </c>
+      <c r="L3" s="9">
         <f>B3+D3+F3+H3+J3</f>
-        <v>41</v>
-      </c>
-      <c r="M3" s="17">
+        <v>76</v>
+      </c>
+      <c r="M3" s="12">
         <f>C3+E3+G3+I3+K3</f>
-        <v>189</v>
-      </c>
-      <c r="N3" s="20">
-        <f>L3+M3</f>
-        <v>230</v>
-      </c>
-      <c r="O3" s="20">
+        <v>154</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="15">
         <v>230</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="20">
         <f>(B2+C3)/(B2+C2+B3+C3)</f>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14">
+        <v>0.62121212121212122</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
         <f t="shared" ref="D4" si="0">(D2+E3)/(D2+E2+D3+E3)</f>
-        <v>0.61194029850746268</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14">
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
         <f t="shared" ref="F4" si="1">(F2+G3)/(F2+G2+F3+G3)</f>
-        <v>0.765625</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20">
         <f t="shared" ref="H4" si="2">(H2+I3)/(H2+I2+H3+I3)</f>
-        <v>0.86153846153846159</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14">
+        <v>0.7846153846153846</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
         <f t="shared" ref="J4" si="3">(J2+K3)/(J2+K2+J3+K3)</f>
-        <v>0.609375</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15">
+        <v>0.515625</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="18">
         <f>(L2+M3)/(L2+M2+L3+M3)</f>
-        <v>0.73312883435582821</v>
-      </c>
-      <c r="M4" s="15"/>
+        <v>0.63496932515337423</v>
+      </c>
+      <c r="M4" s="18"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="18">
         <f>B2/(C2+B2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
-        <f t="shared" ref="D5:M5" si="4">D2/(E2+D2)</f>
-        <v>0.71052631578947367</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
-        <f t="shared" ref="F5:M5" si="5">F2/(G2+F2)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15">
-        <f t="shared" ref="H5:M5" si="6">H2/(I2+H2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15">
-        <f t="shared" ref="J5:M5" si="7">J2/(K2+J2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5" si="4">D2/(E2+D2)</f>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
+        <f t="shared" ref="F5" si="5">F2/(G2+F2)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5" si="6">H2/(I2+H2)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5" si="7">J2/(K2+J2)</f>
         <v>0.59090909090909094</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15">
-        <f t="shared" ref="L5:M5" si="8">L2/(M2+L2)</f>
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="M5" s="15"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18">
+        <f t="shared" ref="L5" si="8">L2/(M2+L2)</f>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="M5" s="18"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="18">
         <f>B2/(B2+B3)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
-        <f t="shared" ref="D6:M6" si="9">D2/(D2+D3)</f>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15">
-        <f t="shared" ref="F6:M6" si="10">F2/(F2+F3)</f>
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15">
-        <f t="shared" ref="H6:M6" si="11">H2/(H2+H3)</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15">
-        <f t="shared" ref="J6:M6" si="12">J2/(J2+J3)</f>
-        <v>0.44827586206896552</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15">
-        <f t="shared" ref="L6:M6" si="13">L2/(L2+L3)</f>
-        <v>0.5494505494505495</v>
-      </c>
-      <c r="M6" s="15"/>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6" si="9">D2/(D2+D3)</f>
+        <v>0.54716981132075471</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6" si="10">F2/(F2+F3)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6" si="11">H2/(H2+H3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6" si="12">J2/(J2+J3)</f>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18">
+        <f t="shared" ref="L6" si="13">L2/(L2+L3)</f>
+        <v>0.41085271317829458</v>
+      </c>
+      <c r="M6" s="18"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="19">
         <f xml:space="preserve"> (2*B5*B6)/(B5+B6)</f>
-        <v>0.25</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
         <f t="shared" ref="D7" si="14" xml:space="preserve"> (2*D5*D6)/(D5+D6)</f>
-        <v>0.67499999999999993</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+        <v>0.63736263736263732</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
         <f t="shared" ref="F7" si="15" xml:space="preserve"> (2*F5*F6)/(F5+F6)</f>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
         <f t="shared" ref="H7" si="16" xml:space="preserve"> (2*H5*H6)/(H5+H6)</f>
-        <v>0.60869565217391308</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19">
         <f t="shared" ref="J7" si="17" xml:space="preserve"> (2*J5*J6)/(J5+J6)</f>
-        <v>0.50980392156862742</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
+        <v>0.45614035087719301</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
         <f t="shared" ref="L7" si="18" xml:space="preserve"> (2*L5*L6)/(L5+L6)</f>
-        <v>0.53475935828877019</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>0.47111111111111115</v>
+      </c>
+      <c r="M7" s="19"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2841,12 +5942,14 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2859,8 +5962,10 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2877,11 +5982,10 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
@@ -2900,139 +6004,266 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="22">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A13" s="25">
+        <v>3</v>
+      </c>
+      <c r="B13" s="17">
         <f>B4</f>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="C13" s="22">
+        <v>0.62121212121212122</v>
+      </c>
+      <c r="C13" s="17">
         <f>B5</f>
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="4">
+        <f>B7</f>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="E13" s="17">
+        <f>D4</f>
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="F13" s="17">
+        <f>D5</f>
+        <v>0.76315789473684215</v>
+      </c>
+      <c r="G13" s="4">
+        <f>D7</f>
+        <v>0.63736263736263732</v>
+      </c>
+      <c r="H13" s="17">
+        <f>F4</f>
+        <v>0.75</v>
+      </c>
+      <c r="I13" s="17">
+        <f>F5</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J13" s="4">
+        <f>F7</f>
         <v>0.2</v>
       </c>
-      <c r="D13" s="5">
-        <f>B7</f>
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="22">
-        <f>D4</f>
-        <v>0.61194029850746268</v>
-      </c>
-      <c r="F13" s="22">
-        <f>D5</f>
-        <v>0.71052631578947367</v>
-      </c>
-      <c r="G13" s="5">
-        <f>D7</f>
-        <v>0.67499999999999993</v>
-      </c>
-      <c r="H13" s="22">
-        <f>F4</f>
-        <v>0.765625</v>
-      </c>
-      <c r="I13" s="22">
-        <f>F5</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J13" s="5">
-        <f>F7</f>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="K13" s="22">
+      <c r="K13" s="17">
         <f>H4</f>
-        <v>0.86153846153846159</v>
-      </c>
-      <c r="L13" s="22">
+        <v>0.7846153846153846</v>
+      </c>
+      <c r="L13" s="17">
         <f>H5</f>
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="5">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="M13" s="4">
         <f>H7</f>
-        <v>0.60869565217391308</v>
-      </c>
-      <c r="N13" s="22">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="N13" s="17">
         <f>J4</f>
-        <v>0.609375</v>
-      </c>
-      <c r="O13" s="22">
+        <v>0.515625</v>
+      </c>
+      <c r="O13" s="17">
         <f>J5</f>
         <v>0.59090909090909094</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <f>J7</f>
-        <v>0.50980392156862742</v>
-      </c>
-      <c r="Q13" s="5">
+        <v>0.45614035087719301</v>
+      </c>
+      <c r="Q13" s="4">
         <f>L4</f>
-        <v>0.73312883435582821</v>
-      </c>
-      <c r="R13" s="5">
+        <v>0.63496932515337423</v>
+      </c>
+      <c r="R13" s="4">
         <f>L5</f>
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="S13" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="S13" s="4">
         <f>L7</f>
-        <v>0.53475935828877019</v>
-      </c>
+        <v>0.47111111111111115</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="J17" s="25"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C18" s="2"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -3072,316 +6303,323 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C0090A-78A8-4725-BBD4-21DD3C794553}">
-  <dimension ref="A1:S13"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B69269-4C18-46DE-AF49-ECF37009F441}">
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="S13" sqref="B13:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="22" max="22" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:21" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="19" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B2" s="8">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>31</v>
+      </c>
+      <c r="E2" s="8">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10">
-        <v>29</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="G2" s="6">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6">
         <v>9</v>
       </c>
-      <c r="F2" s="8">
+      <c r="J2" s="5">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6">
+        <v>9</v>
+      </c>
+      <c r="L2" s="7">
+        <f>B2+D2+F2+H2+J2</f>
+        <v>54</v>
+      </c>
+      <c r="M2" s="8">
+        <f>C2+E2+G2+I2+K2</f>
+        <v>42</v>
+      </c>
+      <c r="O2" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="9">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10">
+        <v>39</v>
+      </c>
+      <c r="D3" s="13">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12">
         <v>5</v>
       </c>
-      <c r="G2" s="9">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8">
-        <v>9</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="F3" s="13">
         <v>5</v>
       </c>
-      <c r="J2" s="8">
-        <v>11</v>
-      </c>
-      <c r="K2" s="9">
-        <v>11</v>
-      </c>
-      <c r="L2" s="10">
-        <f>B2+D2+F2+H2+J2</f>
-        <v>56</v>
-      </c>
-      <c r="M2" s="11">
-        <f>C2+E2+G2+I2+K2</f>
-        <v>40</v>
-      </c>
-      <c r="N2" s="19">
-        <f>L2+M2</f>
-        <v>96</v>
-      </c>
-      <c r="O2" s="19">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="12">
-        <v>7</v>
-      </c>
-      <c r="C3" s="13">
-        <v>49</v>
-      </c>
-      <c r="D3" s="18">
-        <v>12</v>
-      </c>
-      <c r="E3" s="17">
-        <v>17</v>
-      </c>
-      <c r="F3" s="18">
-        <v>12</v>
-      </c>
-      <c r="G3" s="17">
-        <v>40</v>
-      </c>
-      <c r="H3" s="18">
-        <v>10</v>
-      </c>
-      <c r="I3" s="17">
-        <v>41</v>
-      </c>
-      <c r="J3" s="18">
-        <v>12</v>
-      </c>
-      <c r="K3" s="17">
-        <v>30</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="G3" s="12">
+        <v>47</v>
+      </c>
+      <c r="H3" s="13">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12">
+        <v>47</v>
+      </c>
+      <c r="J3" s="13">
+        <v>23</v>
+      </c>
+      <c r="K3" s="12">
+        <v>19</v>
+      </c>
+      <c r="L3" s="9">
         <f>B3+D3+F3+H3+J3</f>
-        <v>53</v>
-      </c>
-      <c r="M3" s="17">
+        <v>73</v>
+      </c>
+      <c r="M3" s="12">
         <f>C3+E3+G3+I3+K3</f>
-        <v>177</v>
-      </c>
-      <c r="N3" s="20">
-        <f>L3+M3</f>
-        <v>230</v>
-      </c>
-      <c r="O3" s="20">
+        <v>157</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="15">
         <v>230</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="20">
         <f>(B2+C3)/(B2+C2+B3+C3)</f>
-        <v>0.77272727272727271</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
         <f t="shared" ref="D4" si="0">(D2+E3)/(D2+E2+D3+E3)</f>
-        <v>0.68656716417910446</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14">
+        <v>0.53731343283582089</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
         <f t="shared" ref="F4" si="1">(F2+G3)/(F2+G2+F3+G3)</f>
-        <v>0.703125</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14">
+        <v>0.765625</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20">
         <f t="shared" ref="H4" si="2">(H2+I3)/(H2+I2+H3+I3)</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
         <f t="shared" ref="J4" si="3">(J2+K3)/(J2+K2+J3+K3)</f>
-        <v>0.640625</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="18">
         <f>(L2+M3)/(L2+M2+L3+M3)</f>
-        <v>0.71472392638036808</v>
-      </c>
-      <c r="M4" s="15"/>
+        <v>0.64723926380368102</v>
+      </c>
+      <c r="M4" s="18"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="18">
         <f>B2/(C2+B2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
-        <f t="shared" ref="D5:M5" si="4">D2/(E2+D2)</f>
-        <v>0.76315789473684215</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
-        <f t="shared" ref="F5:M5" si="5">F2/(G2+F2)</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15">
-        <f t="shared" ref="H5:M5" si="6">H2/(I2+H2)</f>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15">
-        <f t="shared" ref="J5:M5" si="7">J2/(K2+J2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15">
-        <f t="shared" ref="L5:M5" si="8">L2/(M2+L2)</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="M5" s="15"/>
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5" si="4">D2/(E2+D2)</f>
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18">
+        <f t="shared" ref="F5" si="5">F2/(G2+F2)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5" si="6">H2/(I2+H2)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5" si="7">J2/(K2+J2)</f>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18">
+        <f t="shared" ref="L5" si="8">L2/(M2+L2)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="M5" s="18"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="18">
         <f>B2/(B2+B3)</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15">
-        <f t="shared" ref="D6:M6" si="9">D2/(D2+D3)</f>
-        <v>0.70731707317073167</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15">
-        <f t="shared" ref="F6:M6" si="10">F2/(F2+F3)</f>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15">
-        <f t="shared" ref="H6:M6" si="11">H2/(H2+H3)</f>
-        <v>0.47368421052631576</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15">
-        <f t="shared" ref="J6:M6" si="12">J2/(J2+J3)</f>
-        <v>0.47826086956521741</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15">
-        <f t="shared" ref="L6:M6" si="13">L2/(L2+L3)</f>
-        <v>0.51376146788990829</v>
-      </c>
-      <c r="M6" s="15"/>
+        <v>0.15</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6" si="9">D2/(D2+D3)</f>
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6" si="10">F2/(F2+F3)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6" si="11">H2/(H2+H3)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18">
+        <f t="shared" ref="J6" si="12">J2/(J2+J3)</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18">
+        <f t="shared" ref="L6" si="13">L2/(L2+L3)</f>
+        <v>0.42519685039370081</v>
+      </c>
+      <c r="M6" s="18"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="19">
         <f xml:space="preserve"> (2*B5*B6)/(B5+B6)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
+        <f t="shared" ref="D7" si="14" xml:space="preserve"> (2*D5*D6)/(D5+D6)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
+        <f t="shared" ref="F7" si="15" xml:space="preserve"> (2*F5*F6)/(F5+F6)</f>
         <v>0.2105263157894737</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <f t="shared" ref="D7" si="14" xml:space="preserve"> (2*D5*D6)/(D5+D6)</f>
-        <v>0.73417721518987333</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
-        <f t="shared" ref="F7" si="15" xml:space="preserve"> (2*F5*F6)/(F5+F6)</f>
-        <v>0.34482758620689657</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
         <f t="shared" ref="H7" si="16" xml:space="preserve"> (2*H5*H6)/(H5+H6)</f>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19">
         <f t="shared" ref="J7" si="17" xml:space="preserve"> (2*J5*J6)/(J5+J6)</f>
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
+        <v>0.44827586206896558</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
         <f t="shared" ref="L7" si="18" xml:space="preserve"> (2*L5*L6)/(L5+L6)</f>
-        <v>0.54634146341463419</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>0.48430493273542602</v>
+      </c>
+      <c r="M7" s="19"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3398,12 +6636,14 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3416,11 +6656,10 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3437,11 +6676,10 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
@@ -3460,139 +6698,265 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="22">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A13" s="25">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17">
         <f>B4</f>
-        <v>0.77272727272727271</v>
-      </c>
-      <c r="C13" s="22">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="C13" s="17">
         <f>B5</f>
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="4">
+        <f>B7</f>
         <v>0.2</v>
       </c>
-      <c r="D13" s="5">
-        <f>B7</f>
+      <c r="E13" s="17">
+        <f>D4</f>
+        <v>0.53731343283582089</v>
+      </c>
+      <c r="F13" s="17">
+        <f>D5</f>
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="G13" s="4">
+        <f>D7</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H13" s="17">
+        <f>F4</f>
+        <v>0.765625</v>
+      </c>
+      <c r="I13" s="17">
+        <f>F5</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J13" s="4">
+        <f>F7</f>
         <v>0.2105263157894737</v>
       </c>
-      <c r="E13" s="22">
-        <f>D4</f>
-        <v>0.68656716417910446</v>
-      </c>
-      <c r="F13" s="22">
-        <f>D5</f>
-        <v>0.76315789473684215</v>
-      </c>
-      <c r="G13" s="5">
-        <f>D7</f>
-        <v>0.73417721518987333</v>
-      </c>
-      <c r="H13" s="22">
-        <f>F4</f>
-        <v>0.703125</v>
-      </c>
-      <c r="I13" s="22">
-        <f>F5</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J13" s="5">
-        <f>F7</f>
-        <v>0.34482758620689657</v>
-      </c>
-      <c r="K13" s="22">
+      <c r="K13" s="17">
         <f>H4</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="L13" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="L13" s="17">
         <f>H5</f>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="M13" s="5">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="M13" s="4">
         <f>H7</f>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="N13" s="22">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="N13" s="17">
         <f>J4</f>
-        <v>0.640625</v>
-      </c>
-      <c r="O13" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="17">
         <f>J5</f>
-        <v>0.5</v>
-      </c>
-      <c r="P13" s="5">
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="P13" s="4">
         <f>J7</f>
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="Q13" s="5">
+        <v>0.44827586206896558</v>
+      </c>
+      <c r="Q13" s="4">
         <f>L4</f>
-        <v>0.71472392638036808</v>
-      </c>
-      <c r="R13" s="5">
+        <v>0.64723926380368102</v>
+      </c>
+      <c r="R13" s="4">
         <f>L5</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="S13" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="S13" s="4">
         <f>L7</f>
-        <v>0.54634146341463419</v>
-      </c>
+        <v>0.48430493273542602</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C18" s="2"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="30">
